--- a/summaries/trials/None/lineages.xlsx
+++ b/summaries/trials/None/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,10 +23,13 @@
     <t xml:space="preserve">None|CCLB|Vero_cells|20200328</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">VSP0001</t>
   </si>
   <si>
     <t xml:space="preserve">None|E6|Vero_cells|20200328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
